--- a/Calanders/Program_Maria Jose.xlsx
+++ b/Calanders/Program_Maria Jose.xlsx
@@ -15,21 +15,11 @@
     <sheet name="501" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Feriado</t>
-  </si>
-  <si>
-    <t>Con Aviso</t>
-  </si>
-  <si>
-    <t>Sin Aviso</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Teacher</t>
   </si>
@@ -89,6 +79,24 @@
   </si>
   <si>
     <t>32 Sessions</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>With Notice</t>
+  </si>
+  <si>
+    <t>W/O Notice</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Tentatively Planned</t>
   </si>
 </sst>
 </file>
@@ -156,7 +164,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +207,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -265,6 +285,37 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -297,7 +348,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,7 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -325,7 +375,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,6 +383,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -365,6 +441,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -701,7 +783,7 @@
   <dimension ref="B1:Q34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -712,48 +794,48 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3">
         <v>31</v>
       </c>
@@ -775,20 +857,20 @@
       <c r="I6" s="2">
         <v>6</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <f>SUM(J6:J6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>4</v>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>7</v>
@@ -796,13 +878,13 @@
       <c r="D7" s="2">
         <v>8</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>9</v>
       </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>11</v>
       </c>
       <c r="H7" s="2">
@@ -811,32 +893,32 @@
       <c r="I7" s="2">
         <v>13</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>3</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2">
         <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>16</v>
       </c>
       <c r="F8" s="2">
         <v>17</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>18</v>
       </c>
       <c r="H8" s="2">
@@ -845,32 +927,32 @@
       <c r="I8" s="2">
         <v>20</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>3</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2">
         <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>22</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>23</v>
       </c>
       <c r="F9" s="2">
         <v>24</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="7">
         <v>25</v>
       </c>
       <c r="H9" s="2">
@@ -879,30 +961,32 @@
       <c r="I9" s="2">
         <v>27</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+      <c r="J9" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2">
         <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>29</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="23">
         <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>31</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="17">
         <v>1</v>
       </c>
       <c r="H10" s="3">
@@ -911,21 +995,21 @@
       <c r="I10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="9">
+      <c r="J10" s="9"/>
+      <c r="K10" s="8">
         <f>SUM(J7:J10)</f>
-        <v>6</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>5</v>
+      <c r="B11" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="C11" s="3">
         <v>4</v>
@@ -933,13 +1017,13 @@
       <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="17">
         <v>6</v>
       </c>
       <c r="F11" s="3">
         <v>7</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="17">
         <v>8</v>
       </c>
       <c r="H11" s="3">
@@ -948,30 +1032,30 @@
       <c r="I11" s="3">
         <v>10</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="3">
         <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>12</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="17">
         <v>13</v>
       </c>
       <c r="F12" s="3">
         <v>14</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="17">
         <v>15</v>
       </c>
       <c r="H12" s="3">
@@ -980,30 +1064,30 @@
       <c r="I12" s="3">
         <v>17</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3">
         <v>18</v>
       </c>
       <c r="D13" s="3">
         <v>19</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="17">
         <v>20</v>
       </c>
       <c r="F13" s="3">
         <v>21</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="17">
         <v>22</v>
       </c>
       <c r="H13" s="3">
@@ -1012,30 +1096,30 @@
       <c r="I13" s="3">
         <v>24</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="3">
         <v>25</v>
       </c>
       <c r="D14" s="3">
         <v>26</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="17">
         <v>27</v>
       </c>
       <c r="F14" s="3">
         <v>28</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="17">
         <v>29</v>
       </c>
       <c r="H14" s="3">
@@ -1044,18 +1128,18 @@
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>6</v>
+      <c r="B15" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -1063,13 +1147,13 @@
       <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="17">
         <v>4</v>
       </c>
       <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="17">
         <v>6</v>
       </c>
       <c r="H15" s="2">
@@ -1078,33 +1162,33 @@
       <c r="I15" s="2">
         <v>8</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9">
+      <c r="J15" s="9"/>
+      <c r="K15" s="8">
         <f>SUM(J11:J15)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2">
         <v>9</v>
       </c>
       <c r="D16" s="2">
         <v>10</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="17">
         <v>11</v>
       </c>
       <c r="F16" s="2">
         <v>12</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="17">
         <v>13</v>
       </c>
       <c r="H16" s="2">
@@ -1113,30 +1197,30 @@
       <c r="I16" s="2">
         <v>15</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2">
         <v>16</v>
       </c>
       <c r="D17" s="2">
         <v>17</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="17">
         <v>18</v>
       </c>
       <c r="F17" s="2">
         <v>19</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="17">
         <v>20</v>
       </c>
       <c r="H17" s="2">
@@ -1145,30 +1229,30 @@
       <c r="I17" s="2">
         <v>22</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="2">
         <v>23</v>
       </c>
       <c r="D18" s="2">
         <v>24</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="17">
         <v>25</v>
       </c>
       <c r="F18" s="2">
         <v>26</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="17">
         <v>27</v>
       </c>
       <c r="H18" s="2">
@@ -1177,30 +1261,30 @@
       <c r="I18" s="2">
         <v>29</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="2">
         <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>31</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="17">
         <v>1</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="17">
         <v>3</v>
       </c>
       <c r="H19" s="3">
@@ -1209,21 +1293,21 @@
       <c r="I19" s="3">
         <v>5</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="9">
+      <c r="J19" s="9"/>
+      <c r="K19" s="8">
         <f>SUM(J16:J19)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
-        <v>7</v>
+      <c r="B20" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>6</v>
@@ -1231,13 +1315,13 @@
       <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="17">
         <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>9</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="17">
         <v>10</v>
       </c>
       <c r="H20" s="3">
@@ -1246,30 +1330,30 @@
       <c r="I20" s="3">
         <v>12</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="3">
         <v>13</v>
       </c>
       <c r="D21" s="3">
         <v>14</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="17">
         <v>15</v>
       </c>
       <c r="F21" s="3">
         <v>16</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="17">
         <v>17</v>
       </c>
       <c r="H21" s="3">
@@ -1278,30 +1362,30 @@
       <c r="I21" s="3">
         <v>19</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="3">
         <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>21</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="17">
         <v>22</v>
       </c>
       <c r="F22" s="3">
         <v>23</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="17">
         <v>24</v>
       </c>
       <c r="H22" s="3">
@@ -1310,24 +1394,24 @@
       <c r="I22" s="3">
         <v>26</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="3">
         <v>27</v>
       </c>
       <c r="D23" s="3">
         <v>28</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="17">
         <v>29</v>
       </c>
       <c r="F23" s="3">
@@ -1342,21 +1426,21 @@
       <c r="I23" s="3">
         <v>3</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="9">
+      <c r="J23" s="9"/>
+      <c r="K23" s="8">
         <f>SUM(J20:J23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16" t="s">
-        <v>8</v>
+      <c r="B24" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
@@ -1379,16 +1463,16 @@
       <c r="I24" s="2">
         <v>10</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2">
         <v>11</v>
       </c>
@@ -1410,16 +1494,16 @@
       <c r="I25" s="2">
         <v>17</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="2">
         <v>18</v>
       </c>
@@ -1441,16 +1525,16 @@
       <c r="I26" s="2">
         <v>24</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="18"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2">
         <v>25</v>
       </c>
@@ -1472,117 +1556,128 @@
       <c r="I27" s="2">
         <v>31</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <f>SUM(J24:J27)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9">
+      <c r="L27" s="8"/>
+      <c r="M27" s="8">
         <f>SUM(K5:K27)</f>
-        <v>6</v>
-      </c>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
     </row>
     <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" s="5">
         <v>42956</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
+      <c r="G29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5">
         <v>43068</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H31" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
+      <c r="G30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+    </row>
+    <row r="31" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H32" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G31:G32"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B15:B19"/>

--- a/Calanders/Program_Maria Jose.xlsx
+++ b/Calanders/Program_Maria Jose.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10068" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="501" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -185,12 +185,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF3366FF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -216,6 +210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +348,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,7 +360,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -372,7 +371,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,32 +404,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -782,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -835,7 +844,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3">
         <v>31</v>
       </c>
@@ -857,19 +866,19 @@
       <c r="I6" s="2">
         <v>6</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <f>SUM(J6:J6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
@@ -878,13 +887,13 @@
       <c r="D7" s="2">
         <v>8</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>9</v>
       </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>11</v>
       </c>
       <c r="H7" s="2">
@@ -893,32 +902,32 @@
       <c r="I7" s="2">
         <v>13</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>3</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2">
         <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>16</v>
       </c>
       <c r="F8" s="2">
         <v>17</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>18</v>
       </c>
       <c r="H8" s="2">
@@ -927,32 +936,32 @@
       <c r="I8" s="2">
         <v>20</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>3</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="2">
         <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>22</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="26">
         <v>23</v>
       </c>
       <c r="F9" s="2">
         <v>24</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>25</v>
       </c>
       <c r="H9" s="2">
@@ -961,32 +970,32 @@
       <c r="I9" s="2">
         <v>27</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>1.5</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="2">
         <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>29</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="25">
         <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>31</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="19">
         <v>1</v>
       </c>
       <c r="H10" s="3">
@@ -995,20 +1004,22 @@
       <c r="I10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8">
+      <c r="J10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="7">
         <f>SUM(J7:J10)</f>
-        <v>7.5</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3">
@@ -1017,13 +1028,13 @@
       <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="19">
         <v>6</v>
       </c>
       <c r="F11" s="3">
         <v>7</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="19">
         <v>8</v>
       </c>
       <c r="H11" s="3">
@@ -1032,30 +1043,30 @@
       <c r="I11" s="3">
         <v>10</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="3">
         <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>12</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="19">
         <v>13</v>
       </c>
       <c r="F12" s="3">
         <v>14</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="19">
         <v>15</v>
       </c>
       <c r="H12" s="3">
@@ -1064,30 +1075,30 @@
       <c r="I12" s="3">
         <v>17</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="3">
+      <c r="B13" s="21"/>
+      <c r="C13" s="28">
         <v>18</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="28">
         <v>19</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="19">
         <v>20</v>
       </c>
       <c r="F13" s="3">
         <v>21</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="19">
         <v>22</v>
       </c>
       <c r="H13" s="3">
@@ -1096,30 +1107,30 @@
       <c r="I13" s="3">
         <v>24</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3">
         <v>25</v>
       </c>
       <c r="D14" s="3">
         <v>26</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="19">
         <v>27</v>
       </c>
       <c r="F14" s="3">
         <v>28</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="19">
         <v>29</v>
       </c>
       <c r="H14" s="3">
@@ -1128,17 +1139,17 @@
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="2">
@@ -1147,13 +1158,13 @@
       <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <v>4</v>
       </c>
       <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="13">
         <v>6</v>
       </c>
       <c r="H15" s="2">
@@ -1162,33 +1173,33 @@
       <c r="I15" s="2">
         <v>8</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="8">
+      <c r="J15" s="8"/>
+      <c r="K15" s="7">
         <f>SUM(J11:J15)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2">
         <v>9</v>
       </c>
       <c r="D16" s="2">
         <v>10</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="13">
         <v>11</v>
       </c>
       <c r="F16" s="2">
         <v>12</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="13">
         <v>13</v>
       </c>
       <c r="H16" s="2">
@@ -1197,30 +1208,30 @@
       <c r="I16" s="2">
         <v>15</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2">
         <v>16</v>
       </c>
       <c r="D17" s="2">
         <v>17</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="13">
         <v>18</v>
       </c>
       <c r="F17" s="2">
         <v>19</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="13">
         <v>20</v>
       </c>
       <c r="H17" s="2">
@@ -1229,30 +1240,30 @@
       <c r="I17" s="2">
         <v>22</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2">
         <v>23</v>
       </c>
       <c r="D18" s="2">
         <v>24</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="13">
         <v>25</v>
       </c>
       <c r="F18" s="2">
         <v>26</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="13">
         <v>27</v>
       </c>
       <c r="H18" s="2">
@@ -1261,30 +1272,30 @@
       <c r="I18" s="2">
         <v>29</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="2">
         <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>31</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="13">
         <v>1</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="13">
         <v>3</v>
       </c>
       <c r="H19" s="3">
@@ -1293,20 +1304,20 @@
       <c r="I19" s="3">
         <v>5</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="8">
+      <c r="J19" s="8"/>
+      <c r="K19" s="7">
         <f>SUM(J16:J19)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="3">
@@ -1315,13 +1326,13 @@
       <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="13">
         <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>9</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="13">
         <v>10</v>
       </c>
       <c r="H20" s="3">
@@ -1330,30 +1341,30 @@
       <c r="I20" s="3">
         <v>12</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="3">
         <v>13</v>
       </c>
       <c r="D21" s="3">
         <v>14</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="13">
         <v>15</v>
       </c>
       <c r="F21" s="3">
         <v>16</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="13">
         <v>17</v>
       </c>
       <c r="H21" s="3">
@@ -1362,30 +1373,30 @@
       <c r="I21" s="3">
         <v>19</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="3">
         <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>21</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <v>22</v>
       </c>
       <c r="F22" s="3">
         <v>23</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="13">
         <v>24</v>
       </c>
       <c r="H22" s="3">
@@ -1394,24 +1405,24 @@
       <c r="I22" s="3">
         <v>26</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="3">
         <v>27</v>
       </c>
       <c r="D23" s="3">
         <v>28</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="13">
         <v>29</v>
       </c>
       <c r="F23" s="3">
@@ -1426,20 +1437,20 @@
       <c r="I23" s="3">
         <v>3</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="8">
+      <c r="J23" s="8"/>
+      <c r="K23" s="7">
         <f>SUM(J20:J23)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2">
@@ -1463,16 +1474,16 @@
       <c r="I24" s="2">
         <v>10</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="2">
         <v>11</v>
       </c>
@@ -1494,16 +1505,16 @@
       <c r="I25" s="2">
         <v>17</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="2">
         <v>18</v>
       </c>
@@ -1525,16 +1536,16 @@
       <c r="I26" s="2">
         <v>24</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="2">
         <v>25</v>
       </c>
@@ -1556,30 +1567,30 @@
       <c r="I27" s="2">
         <v>31</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <f>SUM(J24:J27)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8">
+      <c r="L27" s="7"/>
+      <c r="M27" s="7">
         <f>SUM(K5:K27)</f>
-        <v>7.5</v>
-      </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
@@ -1588,20 +1599,20 @@
       <c r="C29" s="5">
         <v>42956</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -1610,79 +1621,79 @@
       <c r="C30" s="5">
         <v>43068</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G32" s="25"/>
-      <c r="H32" s="22" t="s">
+      <c r="G32" s="24"/>
+      <c r="H32" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions gridLines="1"/>
